--- a/ch7/range_style.xlsx
+++ b/ch7/range_style.xlsx
@@ -489,110 +489,110 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>96</v>
+      <c r="B2" s="4" t="n">
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>95</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>131</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>140</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="n">
         <v>44</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
